--- a/SHAP/trees/results/02_acc.xlsx
+++ b/SHAP/trees/results/02_acc.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4485714285714286</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7914285714285715</v>
+        <v>0.7571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7857142857142857</v>
+        <v>0.8542857142857143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8457142857142858</v>
+        <v>0.8742857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9057142857142857</v>
+        <v>0.8885714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9028571428571428</v>
+        <v>0.9057142857142857</v>
       </c>
     </row>
   </sheetData>
